--- a/evaluation/performance/results/results.xlsx
+++ b/evaluation/performance/results/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ Projects\heap-isolation\evaluation\performance\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD4F258-2B01-4E1A-B755-039C9727C50A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99CB75E-6379-4CDA-834F-FB024638E360}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A3FF3097-2D1B-429A-9085-88DE28427A60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A3FF3097-2D1B-429A-9085-88DE28427A60}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;~5s" sheetId="2" r:id="rId1"/>
@@ -559,7 +559,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -780,7 +780,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1172,7 +1172,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1393,7 +1393,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1773,7 +1773,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1974,7 +1974,7 @@
           <c:x val="0.16026946631671038"/>
           <c:y val="6.0351049868766403E-2"/>
           <c:w val="0.31279418197725284"/>
-          <c:h val="0.18964895013123356"/>
+          <c:h val="0.16187117235345583"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2040,7 +2040,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4100,8 +4100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505D9D4E-746B-4597-B37F-863E3A966F7F}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,7 +4250,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H3"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4395,8 +4395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811BF598-18CF-4C0D-B5F9-AFC64BCE16D4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4528,7 +4528,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D9" activeCellId="1" sqref="A9:A21 D9:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4558,7 +4558,7 @@
         <v>2578315867.6610169</v>
       </c>
       <c r="D2">
-        <f>((B2-C2)/C2)*100</f>
+        <f t="shared" ref="D2:D21" si="0">((B2-C2)/C2)*100</f>
         <v>-23.160256147977385</v>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
         <v>7201679226.2758617</v>
       </c>
       <c r="D3">
-        <f>((B3-C3)/C3)*100</f>
+        <f t="shared" si="0"/>
         <v>-18.481628159323996</v>
       </c>
     </row>
@@ -4588,7 +4588,7 @@
         <v>4863298862.4897957</v>
       </c>
       <c r="D4">
-        <f>((B4-C4)/C4)*100</f>
+        <f t="shared" si="0"/>
         <v>-10.384210411822997</v>
       </c>
     </row>
@@ -4603,7 +4603,7 @@
         <v>20200686489.736843</v>
       </c>
       <c r="D5">
-        <f>((B5-C5)/C5)*100</f>
+        <f t="shared" si="0"/>
         <v>-8.080616870634632</v>
       </c>
     </row>
@@ -4618,7 +4618,7 @@
         <v>7705977630.8666668</v>
       </c>
       <c r="D6">
-        <f>((B6-C6)/C6)*100</f>
+        <f t="shared" si="0"/>
         <v>-4.3705499003478021</v>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
         <v>10016695425.210526</v>
       </c>
       <c r="D7">
-        <f>((B7-C7)/C7)*100</f>
+        <f t="shared" si="0"/>
         <v>-1.0394468308963865</v>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
         <v>6370421713.666667</v>
       </c>
       <c r="D8">
-        <f>((B8-C8)/C8)*100</f>
+        <f t="shared" si="0"/>
         <v>-0.89742565620135661</v>
       </c>
     </row>
@@ -4663,7 +4663,7 @@
         <v>8865163879.11236</v>
       </c>
       <c r="D9">
-        <f>((B9-C9)/C9)*100</f>
+        <f t="shared" si="0"/>
         <v>1.3774057468839453</v>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
         <v>8414101313.4482756</v>
       </c>
       <c r="D10">
-        <f>((B10-C10)/C10)*100</f>
+        <f t="shared" si="0"/>
         <v>3.4744916810682396</v>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
         <v>508667323.62820512</v>
       </c>
       <c r="D11">
-        <f>((B11-C11)/C11)*100</f>
+        <f t="shared" si="0"/>
         <v>3.5937836839334247</v>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
         <v>14133626962</v>
       </c>
       <c r="D12">
-        <f>((B12-C12)/C12)*100</f>
+        <f t="shared" si="0"/>
         <v>4.9624457947270812</v>
       </c>
     </row>
@@ -4723,7 +4723,7 @@
         <v>15973006893.866667</v>
       </c>
       <c r="D13">
-        <f>((B13-C13)/C13)*100</f>
+        <f t="shared" si="0"/>
         <v>6.2127124211934097</v>
       </c>
     </row>
@@ -4738,7 +4738,7 @@
         <v>2566641185.8684211</v>
       </c>
       <c r="D14">
-        <f>((B14-C14)/C14)*100</f>
+        <f t="shared" si="0"/>
         <v>7.4687652937511366</v>
       </c>
     </row>
@@ -4753,7 +4753,7 @@
         <v>3796901892.5263157</v>
       </c>
       <c r="D15">
-        <f>((B15-C15)/C15)*100</f>
+        <f t="shared" si="0"/>
         <v>10.750949054247497</v>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
         <v>1058934991.3265306</v>
       </c>
       <c r="D16">
-        <f>((B16-C16)/C16)*100</f>
+        <f t="shared" si="0"/>
         <v>11.071527076354997</v>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
         <v>36775369084.666664</v>
       </c>
       <c r="D17">
-        <f>((B17-C17)/C17)*100</f>
+        <f t="shared" si="0"/>
         <v>11.141598287973988</v>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
         <v>3325643837.9736843</v>
       </c>
       <c r="D18">
-        <f>((B18-C18)/C18)*100</f>
+        <f t="shared" si="0"/>
         <v>39.075325891662537</v>
       </c>
     </row>
@@ -4813,7 +4813,7 @@
         <v>6685442793.5862064</v>
       </c>
       <c r="D19">
-        <f>((B19-C19)/C19)*100</f>
+        <f t="shared" si="0"/>
         <v>40.7830652030473</v>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
         <v>27673057504.434784</v>
       </c>
       <c r="D20">
-        <f>((B20-C20)/C20)*100</f>
+        <f t="shared" si="0"/>
         <v>55.051874064315157</v>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
         <v>24480020702.157894</v>
       </c>
       <c r="D21">
-        <f>((B21-C21)/C21)*100</f>
+        <f t="shared" si="0"/>
         <v>121.2571591498705</v>
       </c>
     </row>
